--- a/biology/Zoologie/Fou_austral/Fou_austral.xlsx
+++ b/biology/Zoologie/Fou_austral/Fou_austral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morus serrator
 Le Fou austral (Morus serrator) est une espèce d'oiseaux marins de la famille des Sulidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jeunes oiseaux sont noirs la première année et deviennent plus blancs les saisons suivantes, jusqu'à leur maturité après cinq ans.
 Les adultes ont un corps blanc avec l'extrémité des ailes noire. Leur tête est jaune avec un bec bleu-gris pâle.
@@ -544,7 +558,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de poissons (dont Sardinops neopilchardus, Engraulis australis et Trachurus novaezelandiae). Il consomme aussi des calmars.
 </t>
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Leurs sites de reproduction sont situés sur des îles au large de l'État de Victoria, de la Tasmanie et de la Nouvelle-Zélande.
 </t>
@@ -606,7 +624,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils nichent normalement en grandes colonies sur les îles côtières. Les couples de Fous restent ensemble pendant plusieurs saisons. La femelle pond un seul œuf, il est couvés par les deux parents durant 44 jours.
 </t>
@@ -637,7 +657,9 @@
           <t>Multimedias</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Jeune fou austral, à Cap Kidnappers
